--- a/edata.xlsx
+++ b/edata.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,20 +11,35 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Humidity</t>
-  </si>
-  <si>
-    <t>Pressure</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Learning</t>
+  </si>
+  <si>
+    <t>Bapuji</t>
+  </si>
+  <si>
+    <t>Appleton</t>
+  </si>
+  <si>
+    <t>Innovations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine </t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Marks</t>
   </si>
 </sst>
 </file>
@@ -60,8 +75,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -69,6 +87,150 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="4"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="138147712"/>
+        <c:axId val="138146176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="138147712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="138146176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="138146176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="138147712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -356,261 +518,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
-        <v>32</v>
-      </c>
-      <c r="B2">
-        <v>64</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>1001</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
-        <v>33</v>
-      </c>
-      <c r="B3">
-        <v>53</v>
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>987</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
-        <v>31</v>
-      </c>
-      <c r="B4">
-        <v>71</v>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>991</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5">
-        <v>34</v>
-      </c>
-      <c r="B5">
-        <v>87</v>
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>1023</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6">
-        <v>35</v>
-      </c>
-      <c r="B6">
-        <v>68</v>
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>36</v>
-      </c>
-      <c r="B7">
-        <v>55</v>
-      </c>
-      <c r="C7">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>37</v>
-      </c>
-      <c r="B8">
-        <v>65</v>
-      </c>
-      <c r="C8">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>38</v>
-      </c>
-      <c r="B9">
-        <v>45</v>
-      </c>
-      <c r="C9">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>39</v>
-      </c>
-      <c r="B10">
-        <v>53</v>
-      </c>
-      <c r="C10">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>40</v>
-      </c>
-      <c r="B11">
-        <v>46</v>
-      </c>
-      <c r="C11">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>41</v>
-      </c>
-      <c r="B12">
-        <v>76</v>
-      </c>
-      <c r="C12">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>32</v>
-      </c>
-      <c r="B13">
-        <v>65</v>
-      </c>
-      <c r="C13">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>33</v>
-      </c>
-      <c r="B14">
-        <v>62</v>
-      </c>
-      <c r="C14">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>31</v>
-      </c>
-      <c r="B15">
-        <v>61</v>
-      </c>
-      <c r="C15">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>34</v>
-      </c>
-      <c r="B16">
-        <v>62</v>
-      </c>
-      <c r="C16">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>35</v>
-      </c>
-      <c r="B17">
-        <v>61</v>
-      </c>
-      <c r="C17">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>32</v>
-      </c>
-      <c r="B18">
-        <v>61</v>
-      </c>
-      <c r="C18">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>33</v>
-      </c>
-      <c r="B19">
-        <v>60.8</v>
-      </c>
-      <c r="C19">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>60.6</v>
-      </c>
-      <c r="C20">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>34</v>
-      </c>
-      <c r="B21">
-        <v>60.4</v>
-      </c>
-      <c r="C21">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>35</v>
-      </c>
-      <c r="B22">
-        <v>60.2</v>
-      </c>
-      <c r="C22">
-        <v>1022</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
